--- a/example_output/csv_data/Validation_swell_condensed_vm_vise.xlsx
+++ b/example_output/csv_data/Validation_swell_condensed_vm_vise.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22653831.93779682</v>
+        <v>45075678.65554986</v>
       </c>
       <c r="C2">
-        <v>9593866.943931889</v>
+        <v>18568638.99525648</v>
       </c>
       <c r="D2">
-        <v>475</v>
+        <v>7477</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27748816.36407656</v>
+        <v>54652647.87710153</v>
       </c>
       <c r="C3">
-        <v>11751585.90297378</v>
+        <v>22532253.4551961</v>
       </c>
       <c r="D3">
-        <v>892</v>
+        <v>12138</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>32808988.12401144</v>
+        <v>61901667.9055926</v>
       </c>
       <c r="C4">
-        <v>13894093.04468149</v>
+        <v>25611613.96723705</v>
       </c>
       <c r="D4">
-        <v>1058</v>
+        <v>16649</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34916094.72424997</v>
+        <v>68020261.62232773</v>
       </c>
       <c r="C5">
-        <v>14786758.78735657</v>
+        <v>28239950.92310245</v>
       </c>
       <c r="D5">
-        <v>1278</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>38657799.06883067</v>
+        <v>73959458.6724738</v>
       </c>
       <c r="C6">
-        <v>16602008.45120348</v>
+        <v>30839928.71621327</v>
       </c>
       <c r="D6">
-        <v>1370</v>
+        <v>24716</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,13 +490,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>40595866.00032379</v>
+        <v>79722449.37946014</v>
       </c>
       <c r="C7">
-        <v>17681518.11169994</v>
+        <v>33452455.76875259</v>
       </c>
       <c r="D7">
-        <v>1516</v>
+        <v>27307</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,13 +504,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>43208170.71987396</v>
+        <v>84797200.7727973</v>
       </c>
       <c r="C8">
-        <v>19067894.18801775</v>
+        <v>35945770.44112921</v>
       </c>
       <c r="D8">
-        <v>1658</v>
+        <v>29729</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,13 +518,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>45063833.22810573</v>
+        <v>90298720.96741009</v>
       </c>
       <c r="C9">
-        <v>20071069.10987604</v>
+        <v>38850706.94549043</v>
       </c>
       <c r="D9">
-        <v>1686</v>
+        <v>30546</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,13 +532,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>46703886.59806041</v>
+        <v>95076010.42640033</v>
       </c>
       <c r="C10">
-        <v>21075265.6469452</v>
+        <v>41554354.22814278</v>
       </c>
       <c r="D10">
-        <v>1565</v>
+        <v>30464</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>47993873.76028051</v>
+        <v>99519718.3219095</v>
       </c>
       <c r="C11">
-        <v>22085391.19065233</v>
+        <v>44272069.12336542</v>
       </c>
       <c r="D11">
-        <v>1566</v>
+        <v>28659</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>49737330.74245468</v>
+        <v>102137488.0908943</v>
       </c>
       <c r="C12">
-        <v>23266226.2198972</v>
+        <v>46220874.76469482</v>
       </c>
       <c r="D12">
-        <v>1424</v>
+        <v>27046</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -574,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>49933416.16292566</v>
+        <v>104415352.9056513</v>
       </c>
       <c r="C13">
-        <v>23677140.41257495</v>
+        <v>48051282.63086857</v>
       </c>
       <c r="D13">
-        <v>1252</v>
+        <v>23060</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -588,13 +588,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>49683363.02904264</v>
+        <v>103638352.6206103</v>
       </c>
       <c r="C14">
-        <v>23833945.5512474</v>
+        <v>48483124.55763361</v>
       </c>
       <c r="D14">
-        <v>1202</v>
+        <v>19141</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -602,13 +602,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>50484642.26889636</v>
+        <v>101813000.4591108</v>
       </c>
       <c r="C15">
-        <v>24597852.80062119</v>
+        <v>48408442.04392456</v>
       </c>
       <c r="D15">
-        <v>893</v>
+        <v>16467</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -616,13 +616,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>49120724.64988062</v>
+        <v>99969225.66768017</v>
       </c>
       <c r="C16">
-        <v>24301781.78964166</v>
+        <v>48043674.76836803</v>
       </c>
       <c r="D16">
-        <v>800</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -630,13 +630,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>48347649.91597811</v>
+        <v>97786494.68664724</v>
       </c>
       <c r="C17">
-        <v>23922256.92026861</v>
+        <v>47280485.69193067</v>
       </c>
       <c r="D17">
-        <v>675</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -644,13 +644,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>46337096.28049064</v>
+        <v>95032635.49007533</v>
       </c>
       <c r="C18">
-        <v>22927441.64581995</v>
+        <v>45989302.32242644</v>
       </c>
       <c r="D18">
-        <v>580</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -658,13 +658,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>44612839.9575749</v>
+        <v>89799718.08812763</v>
       </c>
       <c r="C19">
-        <v>22074285.33264088</v>
+        <v>43492333.15314957</v>
       </c>
       <c r="D19">
-        <v>546</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -672,13 +672,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>43944146.37900285</v>
+        <v>85234792.82253297</v>
       </c>
       <c r="C20">
-        <v>21743417.96648484</v>
+        <v>41315095.15742641</v>
       </c>
       <c r="D20">
-        <v>425</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -686,13 +686,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>41276237.67248216</v>
+        <v>79936234.65892477</v>
       </c>
       <c r="C21">
-        <v>20423345.58182655</v>
+        <v>38817760.62369145</v>
       </c>
       <c r="D21">
-        <v>276</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -700,13 +700,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>37053577.26944499</v>
+        <v>74442623.73243096</v>
       </c>
       <c r="C22">
-        <v>18333987.21127385</v>
+        <v>36179613.41606239</v>
       </c>
       <c r="D22">
-        <v>184</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -714,13 +714,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>33481686.6615827</v>
+        <v>68535934.88890547</v>
       </c>
       <c r="C23">
-        <v>16566627.57826432</v>
+        <v>33336230.12803724</v>
       </c>
       <c r="D23">
-        <v>120</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -728,13 +728,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>30088336.91711171</v>
+        <v>62736430.92289044</v>
       </c>
       <c r="C24">
-        <v>14887609.37265067</v>
+        <v>30540368.99750526</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -742,13 +742,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>25712710.81750791</v>
+        <v>55622778.88755491</v>
       </c>
       <c r="C25">
-        <v>12722564.08247284</v>
+        <v>27102301.85772552</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -756,13 +756,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>26105384.85749816</v>
+        <v>51274699.87856972</v>
       </c>
       <c r="C26">
-        <v>12916857.89586173</v>
+        <v>25028416.27616079</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -770,13 +770,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>22570894.51728585</v>
+        <v>44900870.16677228</v>
       </c>
       <c r="C27">
-        <v>11168003.79131459</v>
+        <v>21936038.44720803</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -784,13 +784,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>18724964.29528496</v>
+        <v>40605463.81930444</v>
       </c>
       <c r="C28">
-        <v>9265050.265589545</v>
+        <v>19870509.78288131</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -798,13 +798,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>19224735.39142707</v>
+        <v>36794509.04409707</v>
       </c>
       <c r="C29">
-        <v>9512335.347367318</v>
+        <v>18038400.40263276</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -812,13 +812,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>14227896.08410944</v>
+        <v>32864805.98228105</v>
       </c>
       <c r="C30">
-        <v>7039915.821150701</v>
+        <v>16137381.08415673</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -826,13 +826,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>10810863.17644891</v>
+        <v>27330856.69369084</v>
       </c>
       <c r="C31">
-        <v>5349179.264893537</v>
+        <v>13443333.73890598</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -840,24 +840,122 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>24305432.31105577</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>11976269.12907118</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>9090816.09087427</v>
+        <v>22278728.5869494</v>
       </c>
       <c r="C33">
-        <v>4498105.668398475</v>
+        <v>10996057.01963033</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>19054268.06958937</v>
+      </c>
+      <c r="C34">
+        <v>9403959.41973573</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>18675006.58122276</v>
+      </c>
+      <c r="C35">
+        <v>9215968.354400154</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>14851686.09357849</v>
+      </c>
+      <c r="C36">
+        <v>7329189.869497887</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>14851686.09357849</v>
+      </c>
+      <c r="C37">
+        <v>7329189.869497887</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>12488729.59656359</v>
+      </c>
+      <c r="C38">
+        <v>6163089.487974613</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>9489382.415922236</v>
+      </c>
+      <c r="C39">
+        <v>4682935.326827313</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>9489382.415922236</v>
+      </c>
+      <c r="C40">
+        <v>4682935.326827313</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +965,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,13 +990,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3810014.879023846</v>
+        <v>15745472.92194428</v>
       </c>
       <c r="C2">
-        <v>1792554.707852779</v>
+        <v>6196312.067152489</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -906,13 +1004,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6627073.875854857</v>
+        <v>19642186.23568321</v>
       </c>
       <c r="C3">
-        <v>2737302.740359989</v>
+        <v>7730559.928387191</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>962</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -920,13 +1018,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10046710.14720568</v>
+        <v>23424669.60618157</v>
       </c>
       <c r="C4">
-        <v>3994585.006041605</v>
+        <v>9227855.798230348</v>
       </c>
       <c r="D4">
-        <v>144</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -934,13 +1032,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13825252.64168303</v>
+        <v>27087601.5338355</v>
       </c>
       <c r="C5">
-        <v>5445621.999245925</v>
+        <v>10682806.16003203</v>
       </c>
       <c r="D5">
-        <v>151</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -948,13 +1046,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15007602.801607</v>
+        <v>31419378.68251601</v>
       </c>
       <c r="C6">
-        <v>5906284.242900312</v>
+        <v>12434797.70869116</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -962,13 +1060,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16198928.55122593</v>
+        <v>36098133.32508147</v>
       </c>
       <c r="C7">
-        <v>6388856.184280016</v>
+        <v>14371742.7305604</v>
       </c>
       <c r="D7">
-        <v>206</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -976,13 +1074,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>18824806.26108692</v>
+        <v>40455606.40921076</v>
       </c>
       <c r="C8">
-        <v>7463550.336039576</v>
+        <v>16256917.01740645</v>
       </c>
       <c r="D8">
-        <v>197</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -990,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20182774.96631363</v>
+        <v>44865453.2614165</v>
       </c>
       <c r="C9">
-        <v>8078032.614566018</v>
+        <v>18241895.2451921</v>
       </c>
       <c r="D9">
-        <v>188</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1004,13 +1102,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>21571630.15622947</v>
+        <v>49481628.38848718</v>
       </c>
       <c r="C10">
-        <v>8743962.407887466</v>
+        <v>20384909.12262703</v>
       </c>
       <c r="D10">
-        <v>183</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1018,13 +1116,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>23509658.69910578</v>
+        <v>54570959.43817857</v>
       </c>
       <c r="C11">
-        <v>9719119.078341438</v>
+        <v>22818753.47780825</v>
       </c>
       <c r="D11">
-        <v>144</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1032,13 +1130,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>24292280.68369734</v>
+        <v>56284183.90518679</v>
       </c>
       <c r="C12">
-        <v>10286781.77724489</v>
+        <v>23920349.50418814</v>
       </c>
       <c r="D12">
-        <v>137</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1046,13 +1144,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25881055.32160392</v>
+        <v>58861189.51051948</v>
       </c>
       <c r="C13">
-        <v>11234703.5884239</v>
+        <v>25453943.7340516</v>
       </c>
       <c r="D13">
-        <v>132</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1060,13 +1158,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>26674877.37751909</v>
+        <v>60291871.40974148</v>
       </c>
       <c r="C14">
-        <v>11744190.78128217</v>
+        <v>26372338.19945071</v>
       </c>
       <c r="D14">
-        <v>143</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1074,13 +1172,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>28031911.29242279</v>
+        <v>59888875.82495832</v>
       </c>
       <c r="C15">
-        <v>12495162.36067424</v>
+        <v>26417336.31555763</v>
       </c>
       <c r="D15">
-        <v>108</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1088,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>27034347.13875492</v>
+        <v>58612278.14581276</v>
       </c>
       <c r="C16">
-        <v>12198707.31575186</v>
+        <v>26054067.30623801</v>
       </c>
       <c r="D16">
-        <v>78</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1102,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>25708216.5591437</v>
+        <v>56641174.11016198</v>
       </c>
       <c r="C17">
-        <v>11742788.58445784</v>
+        <v>25320975.09282565</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1116,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>24669481.97667239</v>
+        <v>55903849.65956682</v>
       </c>
       <c r="C18">
-        <v>11404795.10720011</v>
+        <v>25108021.79897606</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1130,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>25692366.42470184</v>
+        <v>53384861.50201862</v>
       </c>
       <c r="C19">
-        <v>12020820.53106572</v>
+        <v>24091870.11045353</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1144,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>27160032.38350052</v>
+        <v>50779710.1176477</v>
       </c>
       <c r="C20">
-        <v>12811564.63010243</v>
+        <v>23022290.54652784</v>
       </c>
       <c r="D20">
-        <v>59</v>
+        <v>851</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1158,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>25411156.60579933</v>
+        <v>48650961.91470173</v>
       </c>
       <c r="C21">
-        <v>12061256.05553374</v>
+        <v>22182245.93378188</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1172,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>20967259.3441052</v>
+        <v>45126596.27419329</v>
       </c>
       <c r="C22">
-        <v>10005768.39162835</v>
+        <v>20669749.06885483</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1186,13 +1284,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>21470006.08442083</v>
+        <v>42616354.12060955</v>
       </c>
       <c r="C23">
-        <v>10299759.37123576</v>
+        <v>19611497.2702541</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1200,13 +1298,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>20046779.7692702</v>
+        <v>39066445.08500173</v>
       </c>
       <c r="C24">
-        <v>9668095.597876595</v>
+        <v>18061367.04141602</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1214,13 +1312,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>16453433.90415412</v>
+        <v>35138822.69541638</v>
       </c>
       <c r="C25">
-        <v>8031886.255580272</v>
+        <v>16350886.361905</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1228,13 +1326,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>17145394.90763362</v>
+        <v>33725230.64341789</v>
       </c>
       <c r="C26">
-        <v>8469146.885041445</v>
+        <v>15780445.41580684</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1242,13 +1340,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>12835946.81636186</v>
+        <v>29065049.84092335</v>
       </c>
       <c r="C27">
-        <v>6409639.730650426</v>
+        <v>13659928.9673661</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1256,13 +1354,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>15500527.44305325</v>
+        <v>27036699.77016373</v>
       </c>
       <c r="C28">
-        <v>7740176.360318285</v>
+        <v>12752955.90957113</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1270,13 +1368,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>12761130.1610962</v>
+        <v>24955738.37130738</v>
       </c>
       <c r="C29">
-        <v>6373557.320986818</v>
+        <v>11813334.28844615</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1284,13 +1382,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>22224925.22428901</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>10558923.73475338</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1298,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>19945024.50573457</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>9526879.643487608</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1312,23 +1410,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>18912961.39295667</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>9185276.825876193</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>17133893.05595113</v>
       </c>
       <c r="C33">
+        <v>8414672.909401786</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>15079740.37550541</v>
+      </c>
+      <c r="C34">
+        <v>7405852.388841921</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>16204235.58722356</v>
+      </c>
+      <c r="C35">
+        <v>7958106.296573079</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>13626083.61722296</v>
+      </c>
+      <c r="C36">
+        <v>6691943.056996316</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -1339,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1364,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11672062.1996634</v>
+        <v>22236626.98394002</v>
       </c>
       <c r="C2">
-        <v>4741885.447082585</v>
+        <v>9026913.937093578</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1378,13 +1574,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13279584.58044326</v>
+        <v>26062397.89835041</v>
       </c>
       <c r="C3">
-        <v>5429756.365924522</v>
+        <v>10579977.93427087</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1392,13 +1588,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15668852.76385864</v>
+        <v>30432894.92714506</v>
       </c>
       <c r="C4">
-        <v>6454453.155459562</v>
+        <v>12354172.40044355</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1406,13 +1602,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15754759.41632704</v>
+        <v>33226830.77461592</v>
       </c>
       <c r="C5">
-        <v>6540229.646333319</v>
+        <v>13488533.70655845</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1420,13 +1616,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18599388.48217186</v>
+        <v>36395533.5106921</v>
       </c>
       <c r="C6">
-        <v>7776860.588464595</v>
+        <v>14774724.08469802</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1434,13 +1630,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>21073148.83576434</v>
+        <v>40474237.38840071</v>
       </c>
       <c r="C7">
-        <v>8883732.03323411</v>
+        <v>16561437.85621241</v>
       </c>
       <c r="D7">
-        <v>119</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1448,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21195460.67871124</v>
+        <v>44164356.97196206</v>
       </c>
       <c r="C8">
-        <v>9001850.444409246</v>
+        <v>18319390.3344193</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1462,13 +1658,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22802560.00151215</v>
+        <v>48826810.06929225</v>
       </c>
       <c r="C9">
-        <v>9793239.058550369</v>
+        <v>20584283.53326198</v>
       </c>
       <c r="D9">
-        <v>171</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1476,13 +1672,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25033998.1132047</v>
+        <v>54170235.12476305</v>
       </c>
       <c r="C10">
-        <v>10841149.79660096</v>
+        <v>23217364.12991533</v>
       </c>
       <c r="D10">
-        <v>174</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1490,13 +1686,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25497814.12942441</v>
+        <v>57516436.3543794</v>
       </c>
       <c r="C11">
-        <v>11125566.91129792</v>
+        <v>24992211.91589416</v>
       </c>
       <c r="D11">
-        <v>186</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1504,13 +1700,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27833501.41469545</v>
+        <v>59619554.509969</v>
       </c>
       <c r="C12">
-        <v>12370930.31555179</v>
+        <v>26298987.60140868</v>
       </c>
       <c r="D12">
-        <v>174</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1518,13 +1714,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>29802330.00903153</v>
+        <v>62210088.59554948</v>
       </c>
       <c r="C13">
-        <v>13587062.79899343</v>
+        <v>27806980.28347355</v>
       </c>
       <c r="D13">
-        <v>164</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1532,13 +1728,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>30814397.8465459</v>
+        <v>62522434.88011734</v>
       </c>
       <c r="C14">
-        <v>14260201.14381708</v>
+        <v>28241372.6483014</v>
       </c>
       <c r="D14">
-        <v>128</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1546,13 +1742,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>29763059.06483643</v>
+        <v>61658385.25766663</v>
       </c>
       <c r="C15">
-        <v>13849258.31097928</v>
+        <v>27980579.72655564</v>
       </c>
       <c r="D15">
-        <v>103</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1560,13 +1756,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>28139074.83270516</v>
+        <v>61967289.58087625</v>
       </c>
       <c r="C16">
-        <v>13117940.79633449</v>
+        <v>28227886.39692388</v>
       </c>
       <c r="D16">
-        <v>111</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1574,13 +1770,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>28984417.68683017</v>
+        <v>60922423.14803096</v>
       </c>
       <c r="C17">
-        <v>13535444.41810428</v>
+        <v>27775894.3128675</v>
       </c>
       <c r="D17">
-        <v>88</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1588,13 +1784,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>27496041.78493527</v>
+        <v>58996121.33872369</v>
       </c>
       <c r="C18">
-        <v>12852994.34814853</v>
+        <v>26921835.42907553</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1602,13 +1798,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>25967134.12030974</v>
+        <v>56165019.15609147</v>
       </c>
       <c r="C19">
-        <v>12138308.14982308</v>
+        <v>25629912.07353634</v>
       </c>
       <c r="D19">
-        <v>69</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1616,13 +1812,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>25873893.35415515</v>
+        <v>54464557.5807624</v>
       </c>
       <c r="C20">
-        <v>12094722.85671887</v>
+        <v>24876795.56030035</v>
       </c>
       <c r="D20">
-        <v>61</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1630,13 +1826,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>25088920.1813775</v>
+        <v>51819092.30822444</v>
       </c>
       <c r="C21">
-        <v>11727788.01453053</v>
+        <v>23692640.55898688</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1644,13 +1840,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>23872176.24609277</v>
+        <v>48892427.37449736</v>
       </c>
       <c r="C22">
-        <v>11159022.40653211</v>
+        <v>22374855.49763847</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1658,13 +1854,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>20832865.52655302</v>
+        <v>44167968.58143015</v>
       </c>
       <c r="C23">
-        <v>9738299.96924245</v>
+        <v>20231182.98719582</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1672,13 +1868,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>20074027.42964429</v>
+        <v>41880489.54413658</v>
       </c>
       <c r="C24">
-        <v>9383581.939388733</v>
+        <v>19183400.88470814</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1686,13 +1882,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>17667387.14554246</v>
+        <v>38074587.11588288</v>
       </c>
       <c r="C25">
-        <v>8258600.598018536</v>
+        <v>17455606.70908326</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1700,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>15098089.92852429</v>
+        <v>34320017.90624508</v>
       </c>
       <c r="C26">
-        <v>7057585.453098978</v>
+        <v>15748462.62441269</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1714,13 +1910,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>11814893.86784658</v>
+        <v>29571286.87014709</v>
       </c>
       <c r="C27">
-        <v>5522859.082597378</v>
+        <v>13583284.62006616</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1728,13 +1924,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8977377.982976003</v>
+        <v>27700166.88527451</v>
       </c>
       <c r="C28">
-        <v>4196465.417782503</v>
+        <v>12723563.93748749</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1742,13 +1938,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8977377.982976003</v>
+        <v>25088599.94055437</v>
       </c>
       <c r="C29">
-        <v>4196465.417782503</v>
+        <v>11578431.94151633</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1756,13 +1952,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8977377.982976003</v>
+        <v>23795796.88015039</v>
       </c>
       <c r="C30">
-        <v>4196465.417782503</v>
+        <v>11042259.6413519</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1770,13 +1966,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>20378318.51910829</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>9534820.141897377</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1784,23 +1980,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>16161003.70941225</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>7629702.662811853</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>14874349.03840473</v>
       </c>
       <c r="C33">
+        <v>7091693.513620994</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>12590624.18405759</v>
+      </c>
+      <c r="C34">
+        <v>6093480.839336853</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>14637625.74425994</v>
+      </c>
+      <c r="C35">
+        <v>7170096.346887038</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>11646458.40587964</v>
+      </c>
+      <c r="C37">
+        <v>5748552.765114897</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>11646458.40587964</v>
+      </c>
+      <c r="C39">
+        <v>5748552.765114897</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -1811,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1836,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10781348.43310123</v>
+        <v>27310045.76660517</v>
       </c>
       <c r="C2">
-        <v>4332387.290643735</v>
+        <v>11338006.70130825</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1850,13 +2144,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13751558.07274628</v>
+        <v>33553375.40834324</v>
       </c>
       <c r="C3">
-        <v>5645598.596637171</v>
+        <v>13930317.0764277</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1864,13 +2158,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18513697.27023771</v>
+        <v>37999255.61385495</v>
       </c>
       <c r="C4">
-        <v>7797719.430795114</v>
+        <v>15846533.52535117</v>
       </c>
       <c r="D4">
-        <v>147</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1878,13 +2172,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>22285784.56652271</v>
+        <v>42645875.31444283</v>
       </c>
       <c r="C5">
-        <v>9606693.638639554</v>
+        <v>17962270.2791293</v>
       </c>
       <c r="D5">
-        <v>149</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1892,13 +2186,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22890661.29117503</v>
+        <v>47224861.91196677</v>
       </c>
       <c r="C6">
-        <v>9980291.597511375</v>
+        <v>20129921.86700667</v>
       </c>
       <c r="D6">
-        <v>153</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1906,13 +2200,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>24122583.88918954</v>
+        <v>51679143.10584062</v>
       </c>
       <c r="C7">
-        <v>10666002.25833501</v>
+        <v>22319846.00471237</v>
       </c>
       <c r="D7">
-        <v>211</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1920,13 +2214,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>28122401.197853</v>
+        <v>55135325.16129611</v>
       </c>
       <c r="C8">
-        <v>12747976.10659249</v>
+        <v>24168487.06790632</v>
       </c>
       <c r="D8">
-        <v>234</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1934,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>30039569.96056665</v>
+        <v>59549675.19066454</v>
       </c>
       <c r="C9">
-        <v>13835914.83887436</v>
+        <v>26520293.34172814</v>
       </c>
       <c r="D9">
-        <v>247</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1948,13 +2242,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>31787079.62598847</v>
+        <v>63062893.38178466</v>
       </c>
       <c r="C10">
-        <v>14871012.29937952</v>
+        <v>28537988.5681945</v>
       </c>
       <c r="D10">
-        <v>192</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1962,13 +2256,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>32075776.90516477</v>
+        <v>65711443.710686</v>
       </c>
       <c r="C11">
-        <v>15400090.14388561</v>
+        <v>30211258.61318359</v>
       </c>
       <c r="D11">
-        <v>234</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1976,13 +2270,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>34269023.5550374</v>
+        <v>68520179.61071761</v>
       </c>
       <c r="C12">
-        <v>16655893.17310593</v>
+        <v>31996743.88496735</v>
       </c>
       <c r="D12">
-        <v>284</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1990,13 +2284,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>35702812.63489127</v>
+        <v>70901117.454082</v>
       </c>
       <c r="C13">
-        <v>17457824.92620941</v>
+        <v>33593861.4617137</v>
       </c>
       <c r="D13">
-        <v>213</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2004,13 +2298,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>34796368.35002568</v>
+        <v>70444252.10895324</v>
       </c>
       <c r="C14">
-        <v>17113736.0782873</v>
+        <v>33854253.31058049</v>
       </c>
       <c r="D14">
-        <v>188</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2018,13 +2312,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>34554180.29536314</v>
+        <v>69802932.81057286</v>
       </c>
       <c r="C15">
-        <v>17053281.03847476</v>
+        <v>33982618.84541193</v>
       </c>
       <c r="D15">
-        <v>177</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2032,13 +2326,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>34343977.03761408</v>
+        <v>70028103.8925695</v>
       </c>
       <c r="C16">
-        <v>16980283.37207183</v>
+        <v>34302698.2525792</v>
       </c>
       <c r="D16">
-        <v>162</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2046,13 +2340,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>33592012.41577836</v>
+        <v>68672455.26802927</v>
       </c>
       <c r="C17">
-        <v>16608498.4634528</v>
+        <v>33777608.8131706</v>
       </c>
       <c r="D17">
-        <v>134</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2060,13 +2354,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>32035644.68125136</v>
+        <v>66914324.82638658</v>
       </c>
       <c r="C18">
-        <v>15839002.1079645</v>
+        <v>32942624.19790258</v>
       </c>
       <c r="D18">
-        <v>105</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2074,13 +2368,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>30140787.37317644</v>
+        <v>63644744.99984751</v>
       </c>
       <c r="C19">
-        <v>14902150.38559365</v>
+        <v>31332975.74385067</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2088,13 +2382,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>29775376.96682653</v>
+        <v>60727607.76105368</v>
       </c>
       <c r="C20">
-        <v>14721484.87209969</v>
+        <v>29896838.47368281</v>
       </c>
       <c r="D20">
-        <v>72</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2102,13 +2396,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>27427763.28396476</v>
+        <v>58272866.52497561</v>
       </c>
       <c r="C21">
-        <v>13560782.2097526</v>
+        <v>28688343.60725435</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2116,13 +2410,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>27137481.54986716</v>
+        <v>55093112.60824472</v>
       </c>
       <c r="C22">
-        <v>13417261.67055252</v>
+        <v>27122917.39108235</v>
       </c>
       <c r="D22">
-        <v>47</v>
+        <v>764</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2130,13 +2424,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>24653678.77223587</v>
+        <v>50608179.93104859</v>
       </c>
       <c r="C23">
-        <v>12189224.65671667</v>
+        <v>24914937.97679251</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2144,13 +2438,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>19119190.42987315</v>
+        <v>46805870.96106034</v>
       </c>
       <c r="C24">
-        <v>9452873.526798854</v>
+        <v>23043021.37586099</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2158,13 +2452,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>15835426.51526638</v>
+        <v>41027576.5038983</v>
       </c>
       <c r="C25">
-        <v>7829321.259222551</v>
+        <v>20198306.38694056</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2172,13 +2466,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>17147682.74166167</v>
+        <v>38838177.97002506</v>
       </c>
       <c r="C26">
-        <v>8478124.47023546</v>
+        <v>19120442.51686555</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2186,13 +2480,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>14736524.86106113</v>
+        <v>33170510.6324761</v>
       </c>
       <c r="C27">
-        <v>7286004.407303876</v>
+        <v>16330190.41966473</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2200,13 +2494,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>14079906.46064131</v>
+        <v>29398636.75277845</v>
       </c>
       <c r="C28">
-        <v>6961360.394927737</v>
+        <v>14473257.33301769</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2214,13 +2508,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>12391890.92896355</v>
+        <v>25337145.67278452</v>
       </c>
       <c r="C29">
-        <v>6126774.987624594</v>
+        <v>12473742.65991121</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2228,13 +2522,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>12391890.92896355</v>
+        <v>24505281.83024724</v>
       </c>
       <c r="C30">
-        <v>6126774.987624594</v>
+        <v>12064207.36205638</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2242,13 +2536,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>11197337.47192612</v>
+        <v>19252067.45473451</v>
       </c>
       <c r="C31">
-        <v>5536166.154484265</v>
+        <v>9477994.806635153</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2256,24 +2550,122 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>18619987.62157142</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>9166815.272791101</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>9415800.940528765</v>
+        <v>16672779.4911717</v>
       </c>
       <c r="C33">
-        <v>4655342.273554761</v>
+        <v>8208184.279483019</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>11447347.7978413</v>
+      </c>
+      <c r="C34">
+        <v>5635649.430004681</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>9626033.727367254</v>
+      </c>
+      <c r="C35">
+        <v>4738997.403317576</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>9626033.727367254</v>
+      </c>
+      <c r="C37">
+        <v>4738997.403317576</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2308,13 +2700,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20373490.3932182</v>
+        <v>40479189.57386112</v>
       </c>
       <c r="C2">
-        <v>9815909.855229061</v>
+        <v>18236339.13161063</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2322,13 +2714,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25397241.93563945</v>
+        <v>49062260.70073763</v>
       </c>
       <c r="C3">
-        <v>12256833.53835693</v>
+        <v>22100582.49319959</v>
       </c>
       <c r="D3">
-        <v>280</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2336,13 +2728,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30667358.38422578</v>
+        <v>54434757.04234706</v>
       </c>
       <c r="C4">
-        <v>14864988.36116626</v>
+        <v>24520301.79437999</v>
       </c>
       <c r="D4">
-        <v>275</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2350,13 +2742,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>30370785.52878024</v>
+        <v>59522092.7028581</v>
       </c>
       <c r="C5">
-        <v>14784622.53251809</v>
+        <v>27032935.34009226</v>
       </c>
       <c r="D5">
-        <v>349</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2364,13 +2756,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>33482643.78595606</v>
+        <v>63353281.29030813</v>
       </c>
       <c r="C6">
-        <v>16356272.43597212</v>
+        <v>29045743.37539841</v>
       </c>
       <c r="D6">
-        <v>386</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2378,13 +2770,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>35328865.94490574</v>
+        <v>67158340.63426241</v>
       </c>
       <c r="C7">
-        <v>17332848.71575488</v>
+        <v>31133210.14359714</v>
       </c>
       <c r="D7">
-        <v>415</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2392,13 +2784,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>36016024.24255484</v>
+        <v>70636888.17320551</v>
       </c>
       <c r="C8">
-        <v>17744301.83893718</v>
+        <v>33166793.83161935</v>
       </c>
       <c r="D8">
-        <v>457</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2406,13 +2798,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>37500092.56515594</v>
+        <v>74035723.14447446</v>
       </c>
       <c r="C9">
-        <v>18614367.14866149</v>
+        <v>35389505.13751035</v>
       </c>
       <c r="D9">
-        <v>382</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2420,13 +2812,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>36803457.9262784</v>
+        <v>75940701.29653674</v>
       </c>
       <c r="C10">
-        <v>18511324.15010334</v>
+        <v>36940755.29121333</v>
       </c>
       <c r="D10">
-        <v>378</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2434,13 +2826,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>38298059.93391546</v>
+        <v>78072066.33887269</v>
       </c>
       <c r="C11">
-        <v>19652113.25135009</v>
+        <v>38689979.68553614</v>
       </c>
       <c r="D11">
-        <v>409</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2448,13 +2840,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>40502004.02463921</v>
+        <v>79182831.70938346</v>
       </c>
       <c r="C12">
-        <v>21120604.44274699</v>
+        <v>39990013.64190503</v>
       </c>
       <c r="D12">
-        <v>331</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2462,13 +2854,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>39616396.11894994</v>
+        <v>80131874.87103306</v>
       </c>
       <c r="C13">
-        <v>20940308.59649674</v>
+        <v>41215085.59295483</v>
       </c>
       <c r="D13">
-        <v>270</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2476,13 +2868,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>38478592.88086965</v>
+        <v>78252916.14048885</v>
       </c>
       <c r="C14">
-        <v>20502504.98723217</v>
+        <v>40963406.8310115</v>
       </c>
       <c r="D14">
-        <v>308</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2490,13 +2882,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40779195.97415879</v>
+        <v>76234778.19123925</v>
       </c>
       <c r="C15">
-        <v>21962968.54041308</v>
+        <v>40621629.11387168</v>
       </c>
       <c r="D15">
-        <v>232</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2504,13 +2896,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>39521900.44902918</v>
+        <v>74874870.63511245</v>
       </c>
       <c r="C16">
-        <v>21585682.2313196</v>
+        <v>40379772.51087115</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2518,13 +2910,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>38848413.5394908</v>
+        <v>72902637.2389009</v>
       </c>
       <c r="C17">
-        <v>21214417.87035208</v>
+        <v>39540521.87835582</v>
       </c>
       <c r="D17">
-        <v>149</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2532,13 +2924,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>35697128.59151889</v>
+        <v>69600752.0294943</v>
       </c>
       <c r="C18">
-        <v>19493558.00443069</v>
+        <v>38009050.55849898</v>
       </c>
       <c r="D18">
-        <v>111</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2546,13 +2938,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>33164042.3679799</v>
+        <v>65271864.94430284</v>
       </c>
       <c r="C19">
-        <v>18110285.31060082</v>
+        <v>35649544.15971006</v>
       </c>
       <c r="D19">
-        <v>83</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2560,13 +2952,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>30839422.70244849</v>
+        <v>60978769.05786695</v>
       </c>
       <c r="C20">
-        <v>16840852.4436939</v>
+        <v>33529151.84301303</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2574,13 +2966,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>27824501.28588736</v>
+        <v>55452443.16974545</v>
       </c>
       <c r="C21">
-        <v>15194458.24249482</v>
+        <v>30490503.75779238</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2588,13 +2980,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>24301003.67895549</v>
+        <v>51825321.60112076</v>
       </c>
       <c r="C22">
-        <v>13270339.75763949</v>
+        <v>28496132.41008484</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2602,13 +2994,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>21872153.25553203</v>
+        <v>48137811.85471937</v>
       </c>
       <c r="C23">
-        <v>11943988.35400474</v>
+        <v>26468556.64691466</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2616,13 +3008,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>19016563.06911873</v>
+        <v>44123446.32939792</v>
       </c>
       <c r="C24">
-        <v>10384602.06350752</v>
+        <v>24261259.36408283</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2630,13 +3022,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>19400930.26686146</v>
+        <v>39544537.61346523</v>
       </c>
       <c r="C25">
-        <v>10594498.0568222</v>
+        <v>21743548.23308065</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2644,13 +3036,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>17183404.49102867</v>
+        <v>37003103.21497618</v>
       </c>
       <c r="C26">
-        <v>9383547.231276328</v>
+        <v>20346141.54280895</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2658,13 +3050,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>17183404.49102867</v>
+        <v>32900928.2773686</v>
       </c>
       <c r="C27">
-        <v>9383547.231276328</v>
+        <v>18090562.28965736</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2672,13 +3064,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>13446740.70103552</v>
+        <v>29467386.6264434</v>
       </c>
       <c r="C28">
-        <v>7343022.539029985</v>
+        <v>16202630.78248095</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2686,13 +3078,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>10217313.4403505</v>
+        <v>26445026.14378033</v>
       </c>
       <c r="C29">
-        <v>5579490.565698946</v>
+        <v>14540787.07665989</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2700,13 +3092,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>10217313.4403505</v>
+        <v>22465634.73721083</v>
       </c>
       <c r="C30">
-        <v>5579490.565698946</v>
+        <v>12352720.2990732</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2714,13 +3106,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>20788174.61246153</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>11428398.90598718</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2728,23 +3120,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>16002612.93522523</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>8799552.034674931</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>12318217.09977918</v>
       </c>
       <c r="C33">
+        <v>6773196.41291875</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>10358344.60152132</v>
+      </c>
+      <c r="C36">
+        <v>5695556.583432695</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -2755,7 +3245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2780,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12917393.85318228</v>
+        <v>28801559.74539644</v>
       </c>
       <c r="C2">
-        <v>5430080.069076751</v>
+        <v>12118146.11017281</v>
       </c>
       <c r="D2">
-        <v>116</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2794,13 +3284,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17965899.8884401</v>
+        <v>35418757.0959309</v>
       </c>
       <c r="C3">
-        <v>7552318.681001837</v>
+        <v>14958002.91031212</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2808,13 +3298,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19789785.72630311</v>
+        <v>40209644.85696016</v>
       </c>
       <c r="C4">
-        <v>8365576.609918276</v>
+        <v>17059696.27424578</v>
       </c>
       <c r="D4">
-        <v>164</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2822,13 +3312,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20792665.40347293</v>
+        <v>44309270.98761706</v>
       </c>
       <c r="C5">
-        <v>8855142.599879468</v>
+        <v>18886518.0260931</v>
       </c>
       <c r="D5">
-        <v>182</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2836,13 +3326,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22208205.52388749</v>
+        <v>48204806.39276181</v>
       </c>
       <c r="C6">
-        <v>9564569.789371466</v>
+        <v>20681951.06404645</v>
       </c>
       <c r="D6">
-        <v>173</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2850,13 +3340,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>22692449.70364196</v>
+        <v>50775947.50746676</v>
       </c>
       <c r="C7">
-        <v>9894073.268517783</v>
+        <v>21930342.57285305</v>
       </c>
       <c r="D7">
-        <v>206</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2864,13 +3354,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>24235797.28950512</v>
+        <v>53240591.99648164</v>
       </c>
       <c r="C8">
-        <v>10697202.38025343</v>
+        <v>23189752.27328558</v>
       </c>
       <c r="D8">
-        <v>232</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2878,13 +3368,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>25876152.80469719</v>
+        <v>55783985.30716183</v>
       </c>
       <c r="C9">
-        <v>11594013.84782796</v>
+        <v>24644249.02899795</v>
       </c>
       <c r="D9">
-        <v>218</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2892,13 +3382,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>26284441.40485426</v>
+        <v>56927639.50815409</v>
       </c>
       <c r="C10">
-        <v>11963645.06432882</v>
+        <v>25527636.22701195</v>
       </c>
       <c r="D10">
-        <v>194</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2906,13 +3396,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>26267909.97484811</v>
+        <v>57666495.2017025</v>
       </c>
       <c r="C11">
-        <v>12132276.37929793</v>
+        <v>26363176.63537312</v>
       </c>
       <c r="D11">
-        <v>170</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2920,13 +3410,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>25920918.93633587</v>
+        <v>58689023.62419566</v>
       </c>
       <c r="C12">
-        <v>12124948.70098879</v>
+        <v>27281794.24560498</v>
       </c>
       <c r="D12">
-        <v>118</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2934,13 +3424,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24130264.04863198</v>
+        <v>58541755.92074768</v>
       </c>
       <c r="C13">
-        <v>11411351.41964828</v>
+        <v>27637063.2035316</v>
       </c>
       <c r="D13">
-        <v>104</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2948,13 +3438,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>23376094.69898261</v>
+        <v>57133377.62316931</v>
       </c>
       <c r="C14">
-        <v>11133192.04122311</v>
+        <v>27358629.48355042</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2962,13 +3452,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>23114060.66110766</v>
+        <v>56534493.90406699</v>
       </c>
       <c r="C15">
-        <v>11232038.57584768</v>
+        <v>27430165.18668196</v>
       </c>
       <c r="D15">
-        <v>83</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2976,13 +3466,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>24421152.93134135</v>
+        <v>54464396.77840795</v>
       </c>
       <c r="C16">
-        <v>12421830.74155593</v>
+        <v>26700294.79211074</v>
       </c>
       <c r="D16">
-        <v>66</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2990,13 +3480,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>23915127.08668955</v>
+        <v>52099517.24628502</v>
       </c>
       <c r="C17">
-        <v>12544924.15796541</v>
+        <v>25754613.57470297</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>957</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3004,13 +3494,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>25796788.33713555</v>
+        <v>50348396.91936746</v>
       </c>
       <c r="C18">
-        <v>13853297.11859173</v>
+        <v>25098680.73641586</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3018,13 +3508,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>27123682.93589287</v>
+        <v>48753759.4265143</v>
       </c>
       <c r="C19">
-        <v>14810439.44884853</v>
+        <v>24462493.81381629</v>
       </c>
       <c r="D19">
-        <v>62</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3032,13 +3522,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>24957604.66836764</v>
+        <v>46430913.28687328</v>
       </c>
       <c r="C20">
-        <v>13720721.84555357</v>
+        <v>23487209.48039995</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3046,13 +3536,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>21087007.2950101</v>
+        <v>45588716.36078276</v>
       </c>
       <c r="C21">
-        <v>11747501.07441579</v>
+        <v>23248834.18562679</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3060,13 +3550,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>19982946.56166571</v>
+        <v>41701665.10159675</v>
       </c>
       <c r="C22">
-        <v>11132432.54099462</v>
+        <v>21280581.8168298</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3074,13 +3564,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>17739267.35944256</v>
+        <v>38731453.67084816</v>
       </c>
       <c r="C23">
-        <v>9946638.727295946</v>
+        <v>19764867.10348834</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3088,13 +3578,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>17086424.56844431</v>
+        <v>35066780.69404364</v>
       </c>
       <c r="C24">
-        <v>9580706.304622944</v>
+        <v>17894764.96428556</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3102,13 +3592,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>16464902.18408132</v>
+        <v>31732908.52421223</v>
       </c>
       <c r="C25">
-        <v>9232692.703262342</v>
+        <v>16193472.23882476</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3116,13 +3606,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>19119145.69039495</v>
+        <v>27887584.23806642</v>
       </c>
       <c r="C26">
-        <v>10721059.5565508</v>
+        <v>14231182.77426246</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3130,13 +3620,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>16826984.51957943</v>
+        <v>26800362.31751091</v>
       </c>
       <c r="C27">
-        <v>9435730.346581332</v>
+        <v>13676367.63733532</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3144,13 +3634,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>13519277.56817183</v>
+        <v>22768064.62703392</v>
       </c>
       <c r="C28">
-        <v>7580933.91394191</v>
+        <v>11620342.07762505</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3158,13 +3648,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>16464902.18408132</v>
+        <v>21358729.12535256</v>
       </c>
       <c r="C29">
-        <v>9232692.703262342</v>
+        <v>10898956.23974335</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3172,13 +3662,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>9040885.80400013</v>
+        <v>17081671.48069493</v>
       </c>
       <c r="C30">
-        <v>5069676.057615614</v>
+        <v>8716454.47054158</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3186,13 +3676,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>14747290.62118618</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>7525263.988871926</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3200,23 +3690,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>12979263.56160909</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>6623073.15907485</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>11728088.55965022</v>
       </c>
       <c r="C33">
+        <v>5984622.17659462</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>9862107.627587972</v>
+      </c>
+      <c r="C34">
+        <v>5032447.334946298</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>9862107.627587972</v>
+      </c>
+      <c r="C35">
+        <v>5032447.334946298</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -3227,7 +3815,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3252,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12136563.59019686</v>
+        <v>16698028.78860639</v>
       </c>
       <c r="C2">
-        <v>5316349.194172773</v>
+        <v>6714296.119728315</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3266,13 +3854,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14432887.77314507</v>
+        <v>20168945.46333818</v>
       </c>
       <c r="C3">
-        <v>6322240.287549243</v>
+        <v>8109955.61080271</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3280,13 +3868,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16055164.51529106</v>
+        <v>23387297.10357577</v>
       </c>
       <c r="C4">
-        <v>7032868.925279897</v>
+        <v>9404383.791759435</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3294,13 +3882,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>17857927.51866931</v>
+        <v>26340546.08345858</v>
       </c>
       <c r="C5">
-        <v>7822558.49177596</v>
+        <v>10591455.80198049</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3308,13 +3896,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>17975808.02675382</v>
+        <v>27975279.64659493</v>
       </c>
       <c r="C6">
-        <v>7874195.344292429</v>
+        <v>11248479.77961407</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3322,13 +3910,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18994748.530096</v>
+        <v>29543283.66490876</v>
       </c>
       <c r="C7">
-        <v>8320536.146084853</v>
+        <v>11880114.65692916</v>
       </c>
       <c r="D7">
-        <v>71</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3336,13 +3924,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>17599649.38597047</v>
+        <v>31420825.13340709</v>
       </c>
       <c r="C8">
-        <v>7723859.708852689</v>
+        <v>12706752.64412168</v>
       </c>
       <c r="D8">
-        <v>113</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3350,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>19749267.89362435</v>
+        <v>32794538.80888107</v>
       </c>
       <c r="C9">
-        <v>8683965.865127144</v>
+        <v>13344310.1800742</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3364,13 +3952,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>20027966.02653765</v>
+        <v>34590793.96196711</v>
       </c>
       <c r="C10">
-        <v>8823699.074039662</v>
+        <v>14201169.77262098</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3378,13 +3966,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>19665533.76974682</v>
+        <v>35894727.43431406</v>
       </c>
       <c r="C11">
-        <v>8680790.066090601</v>
+        <v>14875741.99973195</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3392,13 +3980,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>19145747.41181629</v>
+        <v>36562989.56692968</v>
       </c>
       <c r="C12">
-        <v>8466671.881048182</v>
+        <v>15273757.83346828</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3406,13 +3994,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>19029531.10612325</v>
+        <v>36247901.41248979</v>
       </c>
       <c r="C13">
-        <v>8431488.702450963</v>
+        <v>15251250.96856432</v>
       </c>
       <c r="D13">
-        <v>86</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3420,13 +4008,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>18707581.9920428</v>
+        <v>36314862.76355057</v>
       </c>
       <c r="C14">
-        <v>8304507.183591621</v>
+        <v>15379128.74625225</v>
       </c>
       <c r="D14">
-        <v>81</v>
+        <v>883</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3434,13 +4022,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>18935404.31955903</v>
+        <v>34003245.20743955</v>
       </c>
       <c r="C15">
-        <v>8421005.672307396</v>
+        <v>14481103.99920538</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3448,13 +4036,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>18991015.99987537</v>
+        <v>33222277.96737365</v>
       </c>
       <c r="C16">
-        <v>8541988.469352059</v>
+        <v>14307514.51698221</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3462,13 +4050,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>18647975.03686804</v>
+        <v>32820058.31021168</v>
       </c>
       <c r="C17">
-        <v>8528480.360043375</v>
+        <v>14308759.26290222</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3476,13 +4064,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17072098.1115422</v>
+        <v>31850219.11826729</v>
       </c>
       <c r="C18">
-        <v>7826902.015506573</v>
+        <v>14015866.65095784</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3490,13 +4078,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>17595283.3249138</v>
+        <v>31385017.69417998</v>
       </c>
       <c r="C19">
-        <v>8088665.677136458</v>
+        <v>13900825.35567779</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3504,13 +4092,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>16764306.99414835</v>
+        <v>29601236.29253579</v>
       </c>
       <c r="C20">
-        <v>7720613.277224334</v>
+        <v>13133618.36585604</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3518,13 +4106,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>16843624.83825028</v>
+        <v>29270728.4580975</v>
       </c>
       <c r="C21">
-        <v>7779110.574528567</v>
+        <v>12986977.06609611</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3532,13 +4120,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16443387.47737965</v>
+        <v>25058081.58659351</v>
       </c>
       <c r="C22">
-        <v>7608022.559537188</v>
+        <v>11117889.71536266</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3546,13 +4134,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>13969968.6854175</v>
+        <v>24097542.78405111</v>
       </c>
       <c r="C23">
-        <v>6505478.394727969</v>
+        <v>10691713.25659869</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3560,13 +4148,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>13406481.32007573</v>
+        <v>20809686.54243098</v>
       </c>
       <c r="C24">
-        <v>6345946.438793235</v>
+        <v>9232857.333044123</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3574,13 +4162,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>11259531.1534173</v>
+        <v>16087035.88619491</v>
       </c>
       <c r="C25">
-        <v>5528864.618138306</v>
+        <v>7137508.147753556</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3588,13 +4176,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>12612929.52343692</v>
+        <v>14388682.31920416</v>
       </c>
       <c r="C26">
-        <v>6302438.633844262</v>
+        <v>6383981.363334226</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3602,13 +4190,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>12460964.4154148</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5528690.037933854</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3616,10 +4204,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>8555561.69475572</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3795938.029660916</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3681,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3689,6 +4277,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7194341.15960208</v>
+      </c>
+      <c r="C36">
+        <v>3191990.681667113</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -3699,7 +4385,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3724,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9811511.823581181</v>
+        <v>11403868.68436193</v>
       </c>
       <c r="C2">
-        <v>4330986.942125396</v>
+        <v>4503922.652124782</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3738,13 +4424,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10624575.96608677</v>
+        <v>14356298.12314977</v>
       </c>
       <c r="C3">
-        <v>4689888.836921952</v>
+        <v>5669538.591055422</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3752,13 +4438,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13653492.26032409</v>
+        <v>16993292.42887042</v>
       </c>
       <c r="C4">
-        <v>6026909.793020087</v>
+        <v>6711534.757487812</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3766,13 +4452,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14290224.77507334</v>
+        <v>18819024.71243335</v>
       </c>
       <c r="C5">
-        <v>6307975.571321225</v>
+        <v>7436793.51243327</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3780,13 +4466,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15513362.32609434</v>
+        <v>21594916.74668125</v>
       </c>
       <c r="C6">
-        <v>6847891.626782051</v>
+        <v>8562504.445888428</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>978</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3794,13 +4480,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16370477.87377047</v>
+        <v>23147213.11063474</v>
       </c>
       <c r="C7">
-        <v>7226238.645225842</v>
+        <v>9215777.371575501</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3808,13 +4494,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16874773.20986124</v>
+        <v>24450364.61050402</v>
       </c>
       <c r="C8">
-        <v>7448844.147298882</v>
+        <v>9761941.176788002</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3822,13 +4508,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>16236830.14061199</v>
+        <v>26066723.92541581</v>
       </c>
       <c r="C9">
-        <v>7167244.007339064</v>
+        <v>10439381.03948613</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3836,13 +4522,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>18213538.83637093</v>
+        <v>27778117.82443774</v>
       </c>
       <c r="C10">
-        <v>8039800.6228386</v>
+        <v>11162663.16334877</v>
       </c>
       <c r="D10">
-        <v>91</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3850,13 +4536,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>18018713.61954894</v>
+        <v>28218030.33032553</v>
       </c>
       <c r="C11">
-        <v>7953801.086250891</v>
+        <v>11370575.69110248</v>
       </c>
       <c r="D11">
-        <v>87</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3864,13 +4550,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>17817355.60774451</v>
+        <v>28592843.56560384</v>
       </c>
       <c r="C12">
-        <v>7864917.85036452</v>
+        <v>11546312.99949928</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3878,13 +4564,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>16752925.72277296</v>
+        <v>29076661.79591194</v>
       </c>
       <c r="C13">
-        <v>7395058.361275387</v>
+        <v>11776553.84731698</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3892,13 +4578,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>17168357.60004874</v>
+        <v>29196301.43736575</v>
       </c>
       <c r="C14">
-        <v>7578437.851426918</v>
+        <v>11851619.10620559</v>
       </c>
       <c r="D14">
-        <v>107</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3906,13 +4592,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>19066167.9576796</v>
+        <v>28026679.82908374</v>
       </c>
       <c r="C15">
-        <v>8415737.512343202</v>
+        <v>11421775.0146373</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3920,13 +4606,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>14832318.55182838</v>
+        <v>27714628.40146459</v>
       </c>
       <c r="C16">
-        <v>6559010.421012151</v>
+        <v>11330489.05823923</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3934,13 +4620,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>15723777.94318715</v>
+        <v>27497005.49287368</v>
       </c>
       <c r="C17">
-        <v>7006559.012055079</v>
+        <v>11278637.96792932</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3948,13 +4634,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17086886.69810593</v>
+        <v>26880675.07153373</v>
       </c>
       <c r="C18">
-        <v>7671941.515360691</v>
+        <v>11045618.1796119</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3962,13 +4648,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15376722.56439697</v>
+        <v>25794152.16785612</v>
       </c>
       <c r="C19">
-        <v>6962705.592981501</v>
+        <v>10617264.3511258</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3976,13 +4662,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>16590334.70073042</v>
+        <v>25405390.47356254</v>
       </c>
       <c r="C20">
-        <v>7582794.712664487</v>
+        <v>10473708.4523961</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3990,13 +4676,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>15740472.36014753</v>
+        <v>23215808.36378974</v>
       </c>
       <c r="C21">
-        <v>7254127.421026925</v>
+        <v>9588329.695906755</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4004,13 +4690,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>11929706.03899519</v>
+        <v>22167975.91125046</v>
       </c>
       <c r="C22">
-        <v>5543569.155573929</v>
+        <v>9170647.841633666</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4018,13 +4704,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9802672.623740118</v>
+        <v>20065509.98534923</v>
       </c>
       <c r="C23">
-        <v>4592848.237416921</v>
+        <v>8308322.661478613</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4032,13 +4718,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>16397258.5227453</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>6789857.924830727</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4046,13 +4732,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>14215610.98212219</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5886191.930294988</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4060,13 +4746,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7079151.111813491</v>
+        <v>11574190.88540391</v>
       </c>
       <c r="C26">
-        <v>3356979.620838068</v>
+        <v>4792869.554944938</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4074,13 +4760,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>8184188.861816633</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3389070.563644116</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4088,10 +4774,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>5787095.442701953</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2396434.777472469</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4153,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4161,6 +4847,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -4171,7 +4955,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4196,13 +4980,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5624654.484454612</v>
+        <v>10300061.55132673</v>
       </c>
       <c r="C2">
-        <v>2217575.257466245</v>
+        <v>4067549.244431765</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4210,13 +4994,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7557405.219554754</v>
+        <v>12484321.30284613</v>
       </c>
       <c r="C3">
-        <v>2978834.084846693</v>
+        <v>4930594.410775383</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4224,13 +5008,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9150785.885750419</v>
+        <v>14634332.21972125</v>
       </c>
       <c r="C4">
-        <v>3604194.857188429</v>
+        <v>5780417.972270619</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4238,13 +5022,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9053618.979589796</v>
+        <v>16535503.4828357</v>
       </c>
       <c r="C5">
-        <v>3564404.629854144</v>
+        <v>6531213.877476554</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4252,13 +5036,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10145093.28290221</v>
+        <v>18073114.95931373</v>
       </c>
       <c r="C6">
-        <v>3992529.261227212</v>
+        <v>7138836.76147037</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4266,13 +5050,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10590331.23860403</v>
+        <v>19437332.36612547</v>
       </c>
       <c r="C7">
-        <v>4168300.612824974</v>
+        <v>7663306.718484507</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4280,13 +5064,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12521805.7284327</v>
+        <v>21525241.4027243</v>
       </c>
       <c r="C8">
-        <v>4936248.315472461</v>
+        <v>8477717.893074421</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4294,13 +5078,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12264700.60363587</v>
+        <v>23547121.83862327</v>
       </c>
       <c r="C9">
-        <v>4841659.726637854</v>
+        <v>9268275.715102999</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4308,13 +5092,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13382871.40044513</v>
+        <v>24342271.44836146</v>
       </c>
       <c r="C10">
-        <v>5290298.257554344</v>
+        <v>9579752.492695561</v>
       </c>
       <c r="D10">
-        <v>81</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4322,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>14193341.0214334</v>
+        <v>25380692.26619374</v>
       </c>
       <c r="C11">
-        <v>5630296.822518247</v>
+        <v>9991049.22047748</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4336,13 +5120,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14800285.18353124</v>
+        <v>26556413.9281631</v>
       </c>
       <c r="C12">
-        <v>5892452.474722815</v>
+        <v>10461109.69666552</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4350,13 +5134,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15562081.15103612</v>
+        <v>27472340.14493613</v>
       </c>
       <c r="C13">
-        <v>6213724.622333763</v>
+        <v>10832101.67881228</v>
       </c>
       <c r="D13">
-        <v>133</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4364,13 +5148,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>16779140.84014001</v>
+        <v>27105701.76370188</v>
       </c>
       <c r="C14">
-        <v>6719985.667560726</v>
+        <v>10699395.88151366</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4378,13 +5162,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16052042.53430859</v>
+        <v>26342606.21037045</v>
       </c>
       <c r="C15">
-        <v>6445908.869437204</v>
+        <v>10413386.9285561</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4392,13 +5176,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>14605104.79060935</v>
+        <v>25498943.67522164</v>
       </c>
       <c r="C16">
-        <v>5876953.192682063</v>
+        <v>10105827.96624209</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4406,13 +5190,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>13554524.79202376</v>
+        <v>26436369.57502113</v>
       </c>
       <c r="C17">
-        <v>5454334.271439438</v>
+        <v>10502745.90935664</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4420,13 +5204,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>13669892.85162778</v>
+        <v>25464587.11828073</v>
       </c>
       <c r="C18">
-        <v>5500758.323258499</v>
+        <v>10132645.10920622</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4434,13 +5218,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13189493.97341421</v>
+        <v>23688860.58780486</v>
       </c>
       <c r="C19">
-        <v>5307446.045210708</v>
+        <v>9441854.107611587</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4448,13 +5232,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>14307390.21023859</v>
+        <v>21908634.52913448</v>
       </c>
       <c r="C20">
-        <v>5757286.954425944</v>
+        <v>8747297.525250619</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4462,13 +5246,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>14104397.07740599</v>
+        <v>20592134.38881339</v>
       </c>
       <c r="C21">
-        <v>5675602.615191325</v>
+        <v>8241587.95480612</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4476,13 +5260,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9823297.423369268</v>
+        <v>19113296.45632767</v>
       </c>
       <c r="C22">
-        <v>3952890.168923878</v>
+        <v>7665059.46217611</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4490,13 +5274,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9141608.314592576</v>
+        <v>17139411.49839398</v>
       </c>
       <c r="C23">
-        <v>3678578.79869748</v>
+        <v>6902169.800729254</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4504,13 +5288,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9141608.314592576</v>
+        <v>15011212.55440216</v>
       </c>
       <c r="C24">
-        <v>3678578.79869748</v>
+        <v>6085302.70312088</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4518,13 +5302,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5840967.594329315</v>
+        <v>13416422.05729389</v>
       </c>
       <c r="C25">
-        <v>2350402.556854292</v>
+        <v>5481619.979483639</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4532,13 +5316,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>9633141.743643073</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3961623.777866809</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4546,10 +5330,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>12492928.56782641</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5144855.282748174</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4625,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4633,6 +5417,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -4643,7 +5525,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4668,13 +5550,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4393470.486523121</v>
+        <v>6245061.25332995</v>
       </c>
       <c r="C2">
-        <v>1848045.03023498</v>
+        <v>2723767.586121765</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4682,13 +5564,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5519515.041353568</v>
+        <v>7983263.039995289</v>
       </c>
       <c r="C3">
-        <v>2321719.533485814</v>
+        <v>3481536.618366452</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4696,13 +5578,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6414537.744243929</v>
+        <v>9978850.615915308</v>
       </c>
       <c r="C4">
-        <v>2691452.466363608</v>
+        <v>4351156.544483889</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4710,13 +5592,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6768026.505437818</v>
+        <v>11104971.15893087</v>
       </c>
       <c r="C5">
-        <v>2806982.450634021</v>
+        <v>4809881.526046599</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4724,13 +5606,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8332034.360815343</v>
+        <v>12497960.37630534</v>
       </c>
       <c r="C6">
-        <v>3414848.586445573</v>
+        <v>5362117.834432915</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4738,13 +5620,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8264909.351939829</v>
+        <v>13458650.07671455</v>
       </c>
       <c r="C7">
-        <v>3359385.224559377</v>
+        <v>5739662.520880044</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4752,13 +5634,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8774732.497376904</v>
+        <v>13838793.99514755</v>
       </c>
       <c r="C8">
-        <v>3535779.775710269</v>
+        <v>5852045.548040326</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4766,13 +5648,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9269706.175446926</v>
+        <v>14444061.67170315</v>
       </c>
       <c r="C9">
-        <v>3713126.072752826</v>
+        <v>6075839.619609981</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4780,13 +5662,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8193159.853548502</v>
+        <v>15408365.22801641</v>
       </c>
       <c r="C10">
-        <v>3262715.518713674</v>
+        <v>6418774.888394923</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4794,13 +5676,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8904676.775944913</v>
+        <v>16563569.67351475</v>
       </c>
       <c r="C11">
-        <v>3532539.273039338</v>
+        <v>6789380.285615153</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4808,13 +5690,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10082961.09729657</v>
+        <v>17179809.11695686</v>
       </c>
       <c r="C12">
-        <v>3985740.238757546</v>
+        <v>6961478.431149654</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4822,13 +5704,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9582822.864246886</v>
+        <v>17310353.41714511</v>
       </c>
       <c r="C13">
-        <v>3780368.546250775</v>
+        <v>6965870.658528374</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4836,13 +5718,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9623398.046531573</v>
+        <v>17736746.11142053</v>
       </c>
       <c r="C14">
-        <v>3789190.120222114</v>
+        <v>7096752.614001589</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4850,13 +5732,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10160665.44721932</v>
+        <v>18152004.18118265</v>
       </c>
       <c r="C15">
-        <v>3998585.596339535</v>
+        <v>7195365.517972495</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4864,13 +5746,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9854852.557132289</v>
+        <v>18144045.44146308</v>
       </c>
       <c r="C16">
-        <v>3898788.653501166</v>
+        <v>7159700.667694486</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4878,13 +5760,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10668177.60817765</v>
+        <v>18138359.18551806</v>
       </c>
       <c r="C17">
-        <v>4265282.22330682</v>
+        <v>7141311.721061243</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4892,13 +5774,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>11899036.18604583</v>
+        <v>18649239.53672701</v>
       </c>
       <c r="C18">
-        <v>4798654.273716364</v>
+        <v>7338910.176023918</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4906,13 +5788,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>17707225.00946797</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>6971363.046267876</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4920,13 +5802,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9454451.345095361</v>
+        <v>17486958.6982015</v>
       </c>
       <c r="C20">
-        <v>3835387.657602458</v>
+        <v>6891919.016350004</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4934,13 +5816,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9553019.274616841</v>
+        <v>15874772.70355144</v>
       </c>
       <c r="C21">
-        <v>3884383.41204296</v>
+        <v>6262827.824387158</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4948,13 +5830,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8677441.72863937</v>
+        <v>14624745.25992577</v>
       </c>
       <c r="C22">
-        <v>3550927.91026404</v>
+        <v>5779566.489869564</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4962,13 +5844,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7633640.087100003</v>
+        <v>14357692.64942639</v>
       </c>
       <c r="C23">
-        <v>3154499.168014249</v>
+        <v>5678704.738903563</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4976,13 +5858,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8365950.961254068</v>
+        <v>13251929.61735638</v>
       </c>
       <c r="C24">
-        <v>3486666.97121906</v>
+        <v>5241047.217211012</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4990,13 +5872,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>10722225.19465924</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4240566.479101861</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5004,13 +5886,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8602462.846447367</v>
+        <v>9256926.128695892</v>
       </c>
       <c r="C26">
-        <v>3585520.179530407</v>
+        <v>3661050.754690616</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5018,10 +5900,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8662028.802718271</v>
+        <v>8147129.332494685</v>
       </c>
       <c r="C27">
-        <v>3610353.927475703</v>
+        <v>3222133.738199522</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5097,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5105,6 +5987,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6190479.6024483</v>
+      </c>
+      <c r="C36">
+        <v>2448292.198225963</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -5115,7 +6095,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5140,13 +6120,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8021285.533983606</v>
+        <v>7362821.02082913</v>
       </c>
       <c r="C2">
-        <v>3158837.989668694</v>
+        <v>3040652.489317803</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5154,13 +6134,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10582691.26214418</v>
+        <v>10028153.65446989</v>
       </c>
       <c r="C3">
-        <v>4168106.508432398</v>
+        <v>4141365.148828726</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5168,13 +6148,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12267856.05412659</v>
+        <v>11090063.33674218</v>
       </c>
       <c r="C4">
-        <v>4843140.24321801</v>
+        <v>4579906.070806524</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5182,13 +6162,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12301745.90649841</v>
+        <v>12001273.26839273</v>
       </c>
       <c r="C5">
-        <v>4871045.140067373</v>
+        <v>4956211.937691814</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5196,13 +6176,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12630010.20415781</v>
+        <v>12560954.32014698</v>
       </c>
       <c r="C6">
-        <v>5020327.17135349</v>
+        <v>5187345.572262891</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5210,13 +6190,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12446020.78520675</v>
+        <v>13235233.34454191</v>
       </c>
       <c r="C7">
-        <v>4969567.272933453</v>
+        <v>5465805.17194909</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5224,13 +6204,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12741583.84458105</v>
+        <v>13323056.14847951</v>
       </c>
       <c r="C8">
-        <v>5113458.939206058</v>
+        <v>5491208.686175846</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5238,13 +6218,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12111258.07591438</v>
+        <v>14087852.01574162</v>
       </c>
       <c r="C9">
-        <v>4887773.115456557</v>
+        <v>5765104.400627406</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5252,13 +6232,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13704691.96090787</v>
+        <v>14349969.78213095</v>
       </c>
       <c r="C10">
-        <v>5559818.16044414</v>
+        <v>5841500.922218509</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5266,13 +6246,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12256927.60938741</v>
+        <v>15374900.09526856</v>
       </c>
       <c r="C11">
-        <v>5003188.207362111</v>
+        <v>6220237.734427375</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5280,13 +6260,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11871925.56410526</v>
+        <v>16092603.57822986</v>
       </c>
       <c r="C12">
-        <v>4874600.161743618</v>
+        <v>6460110.664208489</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5294,13 +6274,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10863327.0685949</v>
+        <v>16921960.62037813</v>
       </c>
       <c r="C13">
-        <v>4486660.28504126</v>
+        <v>6744238.895001525</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5308,13 +6288,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10223883.31870876</v>
+        <v>16866798.42702591</v>
       </c>
       <c r="C14">
-        <v>4248707.082162588</v>
+        <v>6660378.185058114</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5322,13 +6302,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12246789.27254657</v>
+        <v>17961113.78039999</v>
       </c>
       <c r="C15">
-        <v>5116406.983610131</v>
+        <v>7068226.540639762</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5336,13 +6316,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9749361.001000704</v>
+        <v>19395931.19825374</v>
       </c>
       <c r="C16">
-        <v>4100169.345008951</v>
+        <v>7647766.384351813</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5350,13 +6330,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>13313626.31556036</v>
+        <v>18979233.3611197</v>
       </c>
       <c r="C17">
-        <v>5682654.963084957</v>
+        <v>7500292.7079374</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5364,13 +6344,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12162475.5140539</v>
+        <v>18159598.23869683</v>
       </c>
       <c r="C18">
-        <v>5235571.035383896</v>
+        <v>7194418.805386006</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5378,13 +6358,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>9241482.921441853</v>
+        <v>18523711.90041055</v>
       </c>
       <c r="C19">
-        <v>3978173.707448541</v>
+        <v>7367575.353595482</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5392,13 +6372,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>18738436.96243165</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>7520582.933065534</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5406,13 +6386,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9241482.921441853</v>
+        <v>17389953.41542339</v>
       </c>
       <c r="C21">
-        <v>3978173.707448541</v>
+        <v>7078250.770808427</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5420,13 +6400,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9241482.921441853</v>
+        <v>15649318.62275086</v>
       </c>
       <c r="C22">
-        <v>3978173.707448541</v>
+        <v>6405434.02414982</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5434,13 +6414,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>12162475.5140539</v>
+        <v>18280354.8353144</v>
       </c>
       <c r="C23">
-        <v>5235571.035383896</v>
+        <v>7507286.200358395</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5448,13 +6428,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9241482.921441853</v>
+        <v>17041557.88870365</v>
       </c>
       <c r="C24">
-        <v>3978173.707448541</v>
+        <v>7022042.040143071</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5462,13 +6442,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>15729157.84195606</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>6498080.784769177</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5476,13 +6456,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9241482.921441853</v>
+        <v>14362046.6524189</v>
       </c>
       <c r="C26">
-        <v>3978173.707448541</v>
+        <v>5948506.043503716</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5490,13 +6470,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>9869157.615501728</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4098763.036925678</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5504,13 +6484,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>13126968.33150218</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5466393.677695444</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5518,13 +6498,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>12176309.60942534</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5071002.942527859</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5532,10 +6512,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>9785460.25738644</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4074968.386388761</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5552,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5560,16 +6540,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>10731945.78313221</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4469636.645180764</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5577,6 +6557,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -5587,7 +6665,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5612,13 +6690,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4112163.129850483</v>
+        <v>5473423.168834676</v>
       </c>
       <c r="C2">
-        <v>1738791.718223844</v>
+        <v>2371861.03827463</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5626,13 +6704,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4550856.586663816</v>
+        <v>7306550.65505985</v>
       </c>
       <c r="C3">
-        <v>1924289.356682984</v>
+        <v>3165626.466355972</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5640,13 +6718,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4550856.586663816</v>
+        <v>9478133.910604181</v>
       </c>
       <c r="C4">
-        <v>1924289.356682984</v>
+        <v>3968044.64893207</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5654,13 +6732,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5815476.868925149</v>
+        <v>11750319.15614781</v>
       </c>
       <c r="C5">
-        <v>2459022.830054177</v>
+        <v>4806171.812664871</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5668,13 +6746,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5904288.461479434</v>
+        <v>13795706.71060728</v>
       </c>
       <c r="C6">
-        <v>2496576.02450181</v>
+        <v>5551399.115893791</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5682,13 +6760,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7252934.483910827</v>
+        <v>15331391.31997587</v>
       </c>
       <c r="C7">
-        <v>3035681.683509179</v>
+        <v>6100400.546736733</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5696,13 +6774,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7414456.535732976</v>
+        <v>17296221.69205049</v>
       </c>
       <c r="C8">
-        <v>3044589.928977536</v>
+        <v>6827891.252254406</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5710,13 +6788,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9128261.725379946</v>
+        <v>19291657.37177379</v>
       </c>
       <c r="C9">
-        <v>3601768.039908051</v>
+        <v>7591887.085671193</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5724,13 +6802,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13027988.96783272</v>
+        <v>19717607.55835979</v>
       </c>
       <c r="C10">
-        <v>5156284.146162071</v>
+        <v>7765859.028959202</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5738,13 +6816,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13776210.90190573</v>
+        <v>22304610.86562275</v>
       </c>
       <c r="C11">
-        <v>5488161.3183406</v>
+        <v>8807758.784906317</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5752,13 +6830,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12432724.18380833</v>
+        <v>22340680.64321526</v>
       </c>
       <c r="C12">
-        <v>4967532.32083743</v>
+        <v>8857674.781409182</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5766,13 +6844,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12512379.57230624</v>
+        <v>23370326.0898159</v>
       </c>
       <c r="C13">
-        <v>5014584.573578059</v>
+        <v>9319414.534303712</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5780,13 +6858,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11736365.22316311</v>
+        <v>23709180.81173699</v>
       </c>
       <c r="C14">
-        <v>4719745.342826882</v>
+        <v>9540504.625758225</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5794,13 +6872,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10369309.31125089</v>
+        <v>24516318.15710736</v>
       </c>
       <c r="C15">
-        <v>4222852.719047398</v>
+        <v>9992905.68318668</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5808,13 +6886,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9452145.662533455</v>
+        <v>24595241.27519996</v>
       </c>
       <c r="C16">
-        <v>3944965.221357038</v>
+        <v>10123659.83567015</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5822,13 +6900,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11136889.10432627</v>
+        <v>23048348.29890025</v>
       </c>
       <c r="C17">
-        <v>4806886.979650948</v>
+        <v>9569707.984177081</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5836,13 +6914,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9991558.504231036</v>
+        <v>23828334.71023471</v>
       </c>
       <c r="C18">
-        <v>4394921.102166035</v>
+        <v>9971110.851028634</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5850,13 +6928,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13761029.2094055</v>
+        <v>24302953.71573287</v>
       </c>
       <c r="C19">
-        <v>6053470.764922319</v>
+        <v>10269508.43851065</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5864,13 +6942,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13761029.2094055</v>
+        <v>24347134.21542108</v>
       </c>
       <c r="C20">
-        <v>6053470.764922319</v>
+        <v>10382105.44186837</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5878,13 +6956,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>13240799.80538919</v>
+        <v>24748336.50875613</v>
       </c>
       <c r="C21">
-        <v>5824622.076329078</v>
+        <v>10611222.61020167</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5892,13 +6970,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>10060832.19870337</v>
+        <v>23772713.64671159</v>
       </c>
       <c r="C22">
-        <v>4425755.709028907</v>
+        <v>10232002.95536574</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5906,13 +6984,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>10060832.19870337</v>
+        <v>22688595.51340311</v>
       </c>
       <c r="C23">
-        <v>4425755.709028907</v>
+        <v>9803080.018280132</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5920,13 +6998,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>13761029.2094055</v>
+        <v>22648206.57247538</v>
       </c>
       <c r="C24">
-        <v>6053470.764922319</v>
+        <v>9803124.986126469</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5934,13 +7012,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8460117.730358807</v>
+        <v>20548597.01992793</v>
       </c>
       <c r="C25">
-        <v>3721602.11051107</v>
+        <v>8894322.419481108</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5948,13 +7026,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8460117.730358807</v>
+        <v>16445459.7504407</v>
       </c>
       <c r="C26">
-        <v>3721602.11051107</v>
+        <v>7118306.96836216</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5962,13 +7040,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8460117.730358807</v>
+        <v>16936908.83020235</v>
       </c>
       <c r="C27">
-        <v>3721602.11051107</v>
+        <v>7331027.40683873</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5976,13 +7054,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>14242185.92079614</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>6164634.666537423</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5990,13 +7068,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>14622311.23141627</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6329169.358087507</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6004,13 +7082,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>14242185.92079614</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>6164634.666537423</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6018,13 +7096,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>11628696.10926704</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5033403.127896338</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6032,24 +7110,122 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>10821721.10430559</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4684109.408640039</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>8222729.875220348</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3559153.48418108</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>10821721.10430559</v>
+      </c>
+      <c r="C34">
+        <v>4684109.408640039</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>12295849.09722207</v>
+      </c>
+      <c r="C35">
+        <v>5322175.824749438</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>8222729.875220348</v>
+      </c>
+      <c r="C36">
+        <v>3559153.48418108</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>8222729.875220348</v>
+      </c>
+      <c r="C37">
+        <v>3559153.48418108</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>9778528.872357475</v>
+      </c>
+      <c r="C38">
+        <v>4232570.646774865</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>8222729.875220348</v>
+      </c>
+      <c r="C40">
+        <v>3559153.48418108</v>
       </c>
     </row>
   </sheetData>
@@ -6059,7 +7235,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6084,13 +7260,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3042947.447320561</v>
+        <v>10373496.41427107</v>
       </c>
       <c r="C2">
-        <v>1332028.922071949</v>
+        <v>4087629.329874969</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6098,13 +7274,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5998943.952134198</v>
+        <v>13972661.03478198</v>
       </c>
       <c r="C3">
-        <v>2376860.837262144</v>
+        <v>5505863.865109297</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6112,13 +7288,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9956869.571510304</v>
+        <v>17167282.15199635</v>
       </c>
       <c r="C4">
-        <v>3919120.200658708</v>
+        <v>6764102.46057093</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6126,13 +7302,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10785441.30363107</v>
+        <v>19757679.15774326</v>
       </c>
       <c r="C5">
-        <v>4256385.644566726</v>
+        <v>7784927.915507502</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6140,13 +7316,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12952598.60300923</v>
+        <v>22209263.10083326</v>
       </c>
       <c r="C6">
-        <v>5135436.222875137</v>
+        <v>8750652.756444674</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6154,13 +7330,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13567889.5555376</v>
+        <v>24977091.08753504</v>
       </c>
       <c r="C7">
-        <v>5416958.141705837</v>
+        <v>9893941.526024148</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>891</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6168,13 +7344,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>14506201.8382313</v>
+        <v>27552109.83637908</v>
       </c>
       <c r="C8">
-        <v>5829457.221266822</v>
+        <v>11020604.64230014</v>
       </c>
       <c r="D8">
-        <v>83</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6182,13 +7358,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>17136978.58761316</v>
+        <v>31335801.06198566</v>
       </c>
       <c r="C9">
-        <v>6925782.390083049</v>
+        <v>12701424.62454831</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6196,13 +7372,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>18282657.77726034</v>
+        <v>34067639.58915674</v>
       </c>
       <c r="C10">
-        <v>7422466.757747886</v>
+        <v>13998124.78796266</v>
       </c>
       <c r="D10">
-        <v>78</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6210,13 +7386,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>17798296.45231791</v>
+        <v>36497737.26198471</v>
       </c>
       <c r="C11">
-        <v>7259893.103148191</v>
+        <v>15220043.75870298</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6224,13 +7400,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18718882.92738236</v>
+        <v>37721267.6885911</v>
       </c>
       <c r="C12">
-        <v>7792706.746954373</v>
+        <v>15975064.55530374</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6238,13 +7414,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>19142954.10132221</v>
+        <v>39937128.05375453</v>
       </c>
       <c r="C13">
-        <v>8201255.171964985</v>
+        <v>17180240.90626454</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6252,13 +7428,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>19610436.83660402</v>
+        <v>40161135.31988781</v>
       </c>
       <c r="C14">
-        <v>8593553.263574697</v>
+        <v>17534503.23211705</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6266,13 +7442,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>21425675.47775188</v>
+        <v>39793683.70011308</v>
       </c>
       <c r="C15">
-        <v>9515448.433320273</v>
+        <v>17621510.50229186</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6280,13 +7456,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>19143631.46642226</v>
+        <v>38771678.93201675</v>
       </c>
       <c r="C16">
-        <v>8549849.219924608</v>
+        <v>17364360.49299921</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6294,13 +7470,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>18830233.88718507</v>
+        <v>39050947.88737825</v>
       </c>
       <c r="C17">
-        <v>8441377.465074284</v>
+        <v>17587164.86284259</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6308,13 +7484,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>18587036.33749094</v>
+        <v>39655620.22301385</v>
       </c>
       <c r="C18">
-        <v>8355487.026405852</v>
+        <v>17910737.35628903</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6322,13 +7498,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18548145.37092615</v>
+        <v>38463418.34570555</v>
       </c>
       <c r="C19">
-        <v>8363265.219718811</v>
+        <v>17421798.12213164</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6336,13 +7512,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>17367176.04961219</v>
+        <v>37344569.22986648</v>
       </c>
       <c r="C20">
-        <v>7845200.229744164</v>
+        <v>16962861.30494877</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6350,13 +7526,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>17593671.88700363</v>
+        <v>33125502.13287802</v>
       </c>
       <c r="C21">
-        <v>7961898.843131502</v>
+        <v>15074107.27821523</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6364,13 +7540,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>15155830.09758864</v>
+        <v>32281596.12515812</v>
       </c>
       <c r="C22">
-        <v>6878421.189364526</v>
+        <v>14718457.07666698</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6378,13 +7554,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>13843669.47593538</v>
+        <v>29751451.491966</v>
       </c>
       <c r="C23">
-        <v>6294196.161995114</v>
+        <v>13602816.3377186</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6392,13 +7568,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>14720111.62283628</v>
+        <v>28746072.56192969</v>
       </c>
       <c r="C24">
-        <v>6704842.432287872</v>
+        <v>13166941.94166662</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6406,13 +7582,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>11677129.3347727</v>
+        <v>25875309.47138388</v>
       </c>
       <c r="C25">
-        <v>5338692.68796514</v>
+        <v>11884903.09828146</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6420,13 +7596,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>13153669.46715644</v>
+        <v>24819704.82430777</v>
       </c>
       <c r="C26">
-        <v>6036776.134575877</v>
+        <v>11473552.95010901</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6434,13 +7610,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>14326818.95183406</v>
+        <v>21483399.65756958</v>
       </c>
       <c r="C27">
-        <v>6624066.14303313</v>
+        <v>10005174.47450273</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6448,13 +7624,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>9693921.398117181</v>
+        <v>21391882.17993599</v>
       </c>
       <c r="C28">
-        <v>4481900.224413008</v>
+        <v>10026559.85957307</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6462,13 +7638,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>12757918.03566612</v>
+        <v>21417287.5238096</v>
       </c>
       <c r="C29">
-        <v>5898512.413995905</v>
+        <v>10102674.37970589</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6476,13 +7652,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>17735500.085084</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>8418050.823799161</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6490,13 +7666,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>11984361.53614667</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5723972.244059624</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6504,23 +7680,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>14152492.89615164</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>6801436.102145995</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>16270378.26911078</v>
       </c>
       <c r="C33">
+        <v>7860251.675053423</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>15492613.19121977</v>
+      </c>
+      <c r="C34">
+        <v>7523867.191134381</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>10531786.65066307</v>
+      </c>
+      <c r="C35">
+        <v>5119606.344489754</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>13860610.72089764</v>
+      </c>
+      <c r="C37">
+        <v>6737780.866529671</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>10531786.65066307</v>
+      </c>
+      <c r="C38">
+        <v>5119606.344489754</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
